--- a/projects/mid_atlantic/monte_carlo/user_inputs.xlsx
+++ b/projects/mid_atlantic/monte_carlo/user_inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2955AF7-039A-48F1-BF71-5A8767854BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B50FB37-B464-45DD-853F-D68D99CC491E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monte_carlo" sheetId="9" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>depth</t>
   </si>
   <si>
-    <t>thk</t>
-  </si>
-  <si>
     <t>phi</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>[kg/s]</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4">
         <v>1402.35</v>
@@ -489,15 +489,15 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4">
         <v>62.44</v>
@@ -515,12 +515,12 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>0.47</v>
@@ -567,15 +567,15 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>200</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
